--- a/unit_tester/test_files/program/redirections.xlsx
+++ b/unit_tester/test_files/program/redirections.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\unit_tester\test_files\program\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDAD0B9-92F7-45EC-A8C8-5D037CF24114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,187 +27,187 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
   <si>
-    <t xml:space="preserve">$&gt; (ls &amp;&amp; pwd | wc) &gt; hola
+    <t>$&gt; (ls &amp;&amp; pwd | wc) &gt; hola
 $&gt; cat hola</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; (ls &amp;&amp; pwd | wc) &gt; hola
+    <t>$&gt; (ls &amp;&amp; pwd | wc) &gt; hola
 $&gt; (ls &amp;&amp; pwd | wc) &gt; hola
 $&gt; cat hola</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; (ls &amp;&amp; pwd | wc) &gt;&gt; hola
+    <t>$&gt; (ls &amp;&amp; pwd | wc) &gt;&gt; hola
 $&gt; echo hey&amp;&amp;(ls &amp;&amp; pwd | wc) &gt; hola
 $&gt; cat hola</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; (pwd | wc) &lt; hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; (ls &amp;&amp; pwd | wc) &lt; hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; (ls -z || pwd | wc) &lt; hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hey &gt; hola
+    <t>$&gt; (pwd | wc) &lt; hola</t>
+  </si>
+  <si>
+    <t>$&gt; (ls &amp;&amp; pwd | wc) &lt; hola</t>
+  </si>
+  <si>
+    <t>$&gt; (ls -z || pwd | wc) &lt; hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo hey &gt; hola
 $&gt; (pwd | wc) &lt; hola</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hey &gt; hola
+    <t>$&gt; echo hey &gt; hola
 $&gt; (ls &amp;&amp; pwd | wc) &lt; hola</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hey &gt; hola
+    <t>$&gt; echo hey &gt; hola
 $&gt; (ls -z || pwd | wc) &lt; hola</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; (ls -z || pwd &amp;&amp; ls)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; ls || (cat Makefile|grep srcs) &amp;&amp; (pwd|wc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; ls -z &amp;&amp; (ls) &amp;&amp; (pwd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; (ls &gt; Docs/hey &amp;&amp; pwd) &gt; hola
+    <t>$&gt; (ls -z || pwd &amp;&amp; ls)</t>
+  </si>
+  <si>
+    <t>$&gt; ls || (cat Makefile|grep srcs) &amp;&amp; (pwd|wc)</t>
+  </si>
+  <si>
+    <t>$&gt; ls -z &amp;&amp; (ls) &amp;&amp; (pwd)</t>
+  </si>
+  <si>
+    <t>$&gt; (ls &gt; Docs/hey &amp;&amp; pwd) &gt; hola
 $&gt; cat hola
 $&gt; cat Docs/hey</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; ls &gt; Docs/hey &amp;&amp; pwd &gt; hola
+    <t>$&gt; ls &gt; Docs/hey &amp;&amp; pwd &gt; hola
 $&gt; cat hola
 $&gt; cat Docs/hey</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; cd ../.. &amp;&amp; pwd &amp;&amp; pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; (cd ../.. &amp;&amp; pwd) &amp;&amp; pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; ls -z || cd ../../..&amp;&amp;pwd
+    <t>$&gt; cd ../.. &amp;&amp; pwd &amp;&amp; pwd</t>
+  </si>
+  <si>
+    <t>$&gt; (cd ../.. &amp;&amp; pwd) &amp;&amp; pwd</t>
+  </si>
+  <si>
+    <t>$&gt; ls -z || cd ../../..&amp;&amp;pwd
 $&gt; pwd</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; ls -z || (cd ../../..&amp;&amp;pwd)
+    <t>$&gt; ls -z || (cd ../../..&amp;&amp;pwd)
 $&gt; pwd</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo que tal &gt;&gt; bonjour
+    <t>$&gt; echo que tal &gt;&gt; bonjour
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo que tal &gt;&gt; bonjour
 $&gt; cat &lt; bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; rm bonjour
 $&gt; echo que tal &gt;&gt; bonjour
 $&gt; cat &lt; bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola que tal &gt; bonjour
+    <t>$&gt; echo hola que tal &gt; bonjour
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola que tal &gt; /tmp/bonjour
+    <t>$&gt; echo hola que tal &gt; /tmp/bonjour
 $&gt; cat -e /tmp/bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; export HOLA=hey
+    <t>$&gt; export HOLA=hey
 $&gt; echo bonjour &gt; $HOLA
 $&gt; echo $HOLA</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; whereis grep &gt; Docs/bonjour
+    <t>$&gt; whereis grep &gt; Docs/bonjour
 $&gt; cat Docs/bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; ls -la &gt; Docs/bonjour
+    <t>$&gt; ls -la &gt; Docs/bonjour
 $&gt; cat Docs/bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; pwd&gt;bonjour
+    <t>$&gt; pwd&gt;bonjour
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; pwd &gt;                     bonjour
+    <t>$&gt; pwd &gt;                     bonjour
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; &gt; bonjour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola &lt; &lt; bonjour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola &gt;&gt;&gt; bonjour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &gt; bonjour echo hola
+    <t>$&gt; echo hola &gt; &gt; bonjour</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola &lt; &lt; bonjour</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola &gt;&gt;&gt; bonjour</t>
+  </si>
+  <si>
+    <t>$&gt; &gt; bonjour echo hola
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &gt; bonjour | echo hola
+    <t>$&gt; &gt; bonjour | echo hola
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; prout hola &gt; bonjour
+    <t>$&gt; prout hola &gt; bonjour
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; hello &gt;&gt; hello &gt;&gt; hello
+    <t>$&gt; echo hola &gt; hello &gt;&gt; hello &gt;&gt; hello
 $&gt; ls
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; hello &gt;&gt; hello &gt;&gt; hello
+    <t>$&gt; echo hola &gt; hello &gt;&gt; hello &gt;&gt; hello
 $&gt; echo hola &gt;&gt; hello
 $&gt; cat &lt; hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; hello &gt;&gt; hello &gt;&gt; hello
+    <t>$&gt; echo hola &gt; hello &gt;&gt; hello &gt;&gt; hello
 $&gt; echo hola &gt;&gt; hello
 $&gt; echo hola &gt; hello &gt;&gt; hello &gt;&gt; hello
 $&gt; cat &lt; hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt;&gt; hello &gt;&gt; hello &gt; hello
+    <t>$&gt; echo hola &gt;&gt; hello &gt;&gt; hello &gt; hello
 $&gt; echo hola &gt;&gt; hello
 $&gt; cat &lt; hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt;&gt; hello &gt;&gt; hello &gt; hello
+    <t>$&gt; echo hola &gt;&gt; hello &gt;&gt; hello &gt; hello
 $&gt; echo hola &gt;&gt; hello
 $&gt; echo hola &gt;&gt; hello &gt;&gt; hello &gt; hello
 $&gt; cat &lt; hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; hello
+    <t>$&gt; echo hola &gt; hello
 $&gt; echo hola &gt;&gt; hello &gt;&gt; hello &gt;&gt; hello
 $&gt; echo hola &gt;&gt; hello
 $&gt; cat &lt; hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; hello
+    <t>$&gt; echo hola &gt; hello
 $&gt; echo hey &gt; bonjour
 $&gt; echo &lt;bonjour &lt;hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; hello
+    <t>$&gt; echo hola &gt; hello
 $&gt; echo hey &gt; bonjour
 $&gt; echo &lt;hello &lt;bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; rm bonjour hello
 $&gt; echo hola &gt; bonjour &gt; hello &gt; bonjour
@@ -210,14 +215,14 @@
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; echo hola &gt; bonjour &gt; hello &gt; bonjour
 $&gt; cat bonjour
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; rm bonjour hello
 $&gt; echo hola &gt; bonjour &gt;&gt; hello &gt; bonjour
@@ -225,7 +230,7 @@
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; rm bonjour hello
 $&gt; echo hola &gt; bonjour &gt; hello &gt;&gt; bonjour
@@ -233,14 +238,14 @@
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; echo hola &gt; bonjour &gt; hello &gt;&gt; bonjour
 $&gt; cat bonjour
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; rm bonjour hello
 $&gt; echo hola &gt;&gt; bonjour &gt; hello &gt; bonjour
@@ -248,14 +253,14 @@
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; echo hola &gt;&gt; bonjour &gt; hello &gt; bonjour
 $&gt; cat bonjour
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; rm bonjour hello
 $&gt; echo hola &gt;&gt; bonjour &gt;&gt; hello &gt;&gt; bonjour
@@ -263,23 +268,23 @@
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; echo hola &gt;&gt; bonjour &gt;&gt; hello &gt;&gt; bonjour
 $&gt; cat bonjour
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &gt; bonjour echo hola bonjour
+    <t>$&gt; &gt; bonjour echo hola bonjour
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &gt;bonjour echo &gt; hola&gt;bonjour&gt;hola&gt;&gt;bonjour&gt;hola hey &gt;bonjour hola &gt;hola
+    <t>$&gt; &gt;bonjour echo &gt; hola&gt;bonjour&gt;hola&gt;&gt;bonjour&gt;hola hey &gt;bonjour hola &gt;hola
 $&gt; cat bonjour
 $&gt; cat hola</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo bonjour &gt; hola1
+    <t>$&gt; echo bonjour &gt; hola1
 $&gt; echo hello &gt; hola2
 $&gt; echo 2 &gt;hola1 &gt;&gt; hola2
 $&gt; ls
@@ -287,7 +292,7 @@
 $&gt; cat hola2</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo bonjour &gt; hola1
+    <t>$&gt; echo bonjour &gt; hola1
 $&gt; echo hello &gt; hola2
 $&gt; echo 2 &gt;&gt;hola1 &gt; hola2
 $&gt; ls
@@ -295,105 +300,105 @@
 $&gt; cat hola2</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &gt; pwd
+    <t>$&gt; &gt; pwd
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &lt; pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &lt; Makefile .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;srcs/pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;../pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &gt;&gt; &lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &gt;&gt; &gt; &gt;&gt; &lt;&lt; &gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt; ls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt; ls &gt; ls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &gt; ls1 &lt; ls2
+    <t>$&gt; &lt; pwd</t>
+  </si>
+  <si>
+    <t>$&gt; &lt; Makefile .</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;pwd</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;srcs/pwd</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;../pwd</t>
+  </si>
+  <si>
+    <t>$&gt; cat &gt;&gt;</t>
+  </si>
+  <si>
+    <t>$&gt; cat &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>$&gt; cat &gt;&gt; &lt;&lt;</t>
+  </si>
+  <si>
+    <t>$&gt; cat &gt;&gt; &gt; &gt;&gt; &lt;&lt; &gt;&gt;</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt; ls</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt; ls &gt; ls</t>
+  </si>
+  <si>
+    <t>$&gt; cat &gt; ls1 &lt; ls2
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &gt;&gt;hola
+    <t>$&gt; &gt;&gt;hola
 $&gt; cat hola</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; cat &lt; bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt;bonjour
+    <t>$&gt; echo hola &gt;bonjour
 $&gt; cat &lt;bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola&gt;bonjour
+    <t>$&gt; echo hola&gt;bonjour
 $&gt; cat&lt;bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola&gt; bonjour
+    <t>$&gt; echo hola&gt; bonjour
 $&gt; cat&lt; bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola               &gt;bonjour
+    <t>$&gt; echo hola               &gt;bonjour
 $&gt; cat&lt;                     bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola          &gt;     bonjour
+    <t>$&gt; echo hola          &gt;     bonjour
 $&gt; cat            &lt;         bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; cat &lt; srcs/bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt;srcs/bonjour
+    <t>$&gt; echo hola &gt;srcs/bonjour
 $&gt; cat &lt;srcs/bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; e'c'"h"o hola &gt; bonjour
+    <t>$&gt; e'c'"h"o hola &gt; bonjour
 $&gt; cat 'bo'"n"jour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour\ 1
+    <t>$&gt; echo hola &gt; bonjour\ 1
 $&gt; ls
 $&gt; cat bonjour\ 1</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour hey
+    <t>$&gt; echo hola &gt; bonjour hey
 $&gt; ls
 $&gt; cat bonjour
 $&gt; cat hey</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; &gt;srcs/bonjour &gt;srcs/hello &lt;prout
 $&gt; cat srcs/bonjour srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; rm srcs/bonjour srcs/hello
 $&gt; &gt;srcs/bonjour &gt;srcs/hello &lt;prout
@@ -401,14 +406,14 @@
 $&gt; cat srcs/bonjour srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; &gt;srcs/bonjour &lt;prout &gt;srcs/hello 
 $&gt; cat srcs/bonjour 
 $&gt; cat srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; rm srcs/bonjour srcs/hello
 $&gt; &gt;srcs/bonjour &lt;prout &gt;srcs/hello 
@@ -416,13 +421,13 @@
 $&gt; cat srcs/bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; ../bonjour
+    <t>$&gt; echo hola &gt; ../bonjour
 $&gt; echo hey &gt; ../hello
 $&gt; &gt;../bonjour &gt;../hello &lt;prout
 $&gt; cat ../bonjour ../hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; ../bonjour
+    <t>$&gt; echo hola &gt; ../bonjour
 $&gt; echo hey &gt; ../hello
 $&gt; rm ../bonjour ../hello
 $&gt; &gt;../bonjour &gt;../hello &lt;prout
@@ -430,14 +435,14 @@
 $&gt; cat ../bonjour ../hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; ../bonjour
+    <t>$&gt; echo hola &gt; ../bonjour
 $&gt; echo hey &gt; ../hello
 $&gt; &gt;../bonjour &lt;prout &gt;../hello 
 $&gt; cat ../bonjour 
 $&gt; cat ../hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; ../bonjour
+    <t>$&gt; echo hola &gt; ../bonjour
 $&gt; echo hey &gt; ../hello
 $&gt; rm ../bonjour ../hello
 $&gt; &gt;../bonjour &lt;prout &gt;../hello 
@@ -445,70 +450,70 @@
 $&gt; cat ../bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; &gt;srcs/bonjour &gt;&gt;srcs/hello &lt;prout
 $&gt; cat srcs/bonjour 
 $&gt; cat srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; &gt;&gt;srcs/bonjour &gt;srcs/hello &lt;prout
 $&gt; cat srcs/bonjour 
 $&gt; cat srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; &gt;&gt;srcs/bonjour &gt;&gt;srcs/hello &lt;prout
 $&gt; cat srcs/bonjour 
 $&gt; cat srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; &gt;srcs/bonjour &lt;prout &gt;&gt;srcs/hello
 $&gt; cat srcs/bonjour 
 $&gt; cat srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; &gt;&gt;srcs/bonjour &lt;prout &gt;srcs/hello
 $&gt; cat srcs/bonjour 
 $&gt; cat srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; &gt;&gt;srcs/bonjour &lt;prout &gt;&gt;srcs/hello
 $&gt; cat srcs/bonjour 
 $&gt; cat srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; srcs/bonjour
+    <t>$&gt; echo hola &gt; srcs/bonjour
 $&gt; echo hey &gt; srcs/hello
 $&gt; &lt;prout &gt;&gt;srcs/bonjour &gt;&gt;srcs/hello
 $&gt; cat srcs/bonjour 
 $&gt; cat srcs/hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; &lt;bonjour &gt;hello
 $&gt; cat bonjour 
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; &gt;bonjour &gt;hello &lt; prout
 $&gt; cat bonjour 
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; rm bonjour hello
 $&gt; &gt;bonjour &gt;hello &lt; prout
@@ -516,7 +521,7 @@
 $&gt; cat hello</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; echo hey &gt; hello
 $&gt; &gt;bonjour &lt;prout hello
 $&gt; cat bonjour 
@@ -530,47 +535,47 @@
 $&gt; cat bonjour </t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; bonjour
+    <t>$&gt; echo hola &gt; bonjour
 $&gt; &lt;bonjour cat | wc &gt; bonjour
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; rm -f bonjour
+    <t>$&gt; rm -f bonjour
 $&gt; rm bonjour &gt; bonjour
 $&gt; ls -l bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; export HOLA="bonjour hello"
+    <t>$&gt; export HOLA="bonjour hello"
 $&gt; &gt;$HOLA
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; export HOLA="bonjour hello"
+    <t>$&gt; export HOLA="bonjour hello"
 $&gt; &gt;"$HOLA"
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; export HOLA="bonjour hello"
+    <t>$&gt; export HOLA="bonjour hello"
 $&gt; &gt;$"HOLA"
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; export HOLA="bonjour hello"
+    <t>$&gt; export HOLA="bonjour hello"
 $&gt; &gt;$HOLA&gt;hey
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; export HOLA="bonjour hello"
+    <t>$&gt; export HOLA="bonjour hello"
 $&gt; &gt;hey&gt;$HOLA
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; export HOLA="bonjour hello"
+    <t>$&gt; export HOLA="bonjour hello"
 $&gt; &gt;hey&gt;$HOLA&gt;hey&gt;hey
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; export A=hey
+    <t>$&gt; export A=hey
 $&gt; export A B=Hola D E C="Que Tal"
 $&gt; echo $PROUT$B$C &gt; /tmp/a &gt; /tmp/b &gt; /tmp/c
 $&gt; cat /tmp/a
@@ -578,134 +583,116 @@
 $&gt; cat /tmp/c</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &lt;a cat &lt;b &lt;c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &lt;a cat &lt;b &lt;c
+    <t>$&gt; &lt;a cat &lt;b &lt;c</t>
+  </si>
+  <si>
+    <t>$&gt; &lt;a cat &lt;b &lt;c
 $&gt; cat a
 $&gt; cat b
 $&gt; cat c</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &gt;a ls &gt;b &gt;&gt;c &gt;d
+    <t>$&gt; &gt;a ls &gt;b &gt;&gt;c &gt;d
 $&gt; cat a
 $&gt; cat b
 $&gt; cat c
 $&gt; cat d</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo hola &gt; a &gt; b &gt; c
+    <t>$&gt; echo hola &gt; a &gt; b &gt; c
 $&gt; cat a
 $&gt; cat b
 $&gt; cat c</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; mkdir dir
+    <t>$&gt; mkdir dir
 $&gt; ls -la &gt; dir/bonjour
 $&gt; cat dir/bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &lt;a
+    <t>$&gt; &lt;a
 $&gt; cat a</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &gt;d cat &lt;a &gt;&gt;e
+    <t>$&gt; &gt;d cat &lt;a &gt;&gt;e
 $&gt; cat a
 $&gt; cat d
 $&gt; cat e</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; &lt; a &gt; b cat &gt; hey &gt;&gt; d
+    <t>$&gt; &lt; a &gt; b cat &gt; hey &gt;&gt; d
 $&gt; cat d
 $&gt; ls</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; cat &lt;&lt; hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;&lt; 'hola'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;&lt; "hola"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;&lt; ho"la"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;&lt; $HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;&lt; hola &gt; bonjour
+    <t>$&gt; cat &lt;&lt; hola</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;&lt; 'hola'</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;&lt; "hola"</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;&lt; ho"la"</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;&lt; $HOME</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;&lt; hola &gt; bonjour
 $&gt; cat bonjour</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; cat &lt;&lt; hola | rev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &lt;&lt; hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &lt;&lt;hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; cat &lt;&lt; prout &lt;&lt; lol &lt;&lt; koala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; prout &lt;&lt; lol &lt;&lt; cat &lt;&lt; koala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &lt;&lt; $hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &lt;&lt; $"hola"$"b"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &lt;&lt; $"$hola"$$"b"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &lt;&lt; ho$la$"$a"$$"b"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola &lt;&lt;&lt; bonjour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola &lt;&lt;&lt;&lt; bonjour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola &lt;&lt;&lt;&lt;&lt; bonjour</t>
+    <t>$&gt; cat &lt;&lt; hola | rev</t>
+  </si>
+  <si>
+    <t>$&gt; &lt;&lt; hola</t>
+  </si>
+  <si>
+    <t>$&gt; &lt;&lt;hola</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;&lt;</t>
+  </si>
+  <si>
+    <t>$&gt; cat &lt;&lt; prout &lt;&lt; lol &lt;&lt; koala</t>
+  </si>
+  <si>
+    <t>$&gt; prout &lt;&lt; lol &lt;&lt; cat &lt;&lt; koala</t>
+  </si>
+  <si>
+    <t>$&gt; &lt;&lt; $hola</t>
+  </si>
+  <si>
+    <t>$&gt; &lt;&lt; $"hola"$"b"</t>
+  </si>
+  <si>
+    <t>$&gt; &lt;&lt; $"$hola"$$"b"</t>
+  </si>
+  <si>
+    <t>$&gt; &lt;&lt; ho$la$"$a"$$"b"</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola &lt;&lt;&lt; bonjour</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola &lt;&lt;&lt;&lt; bonjour</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola &lt;&lt;&lt;&lt;&lt; bonjour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -717,7 +704,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -725,778 +712,1066 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.92"/>
+    <col min="1" max="1" width="64.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
